--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H2">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>386.7890743676907</v>
+        <v>465.1208674066551</v>
       </c>
       <c r="R2">
-        <v>3481.101669309216</v>
+        <v>4186.087806659896</v>
       </c>
       <c r="S2">
-        <v>0.5125792090544261</v>
+        <v>0.5777898586135886</v>
       </c>
       <c r="T2">
-        <v>0.5125792090544261</v>
+        <v>0.5777898586135884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H3">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>7.040447328739333</v>
+        <v>6.113214186862001</v>
       </c>
       <c r="R3">
-        <v>63.364025958654</v>
+        <v>55.01892768175801</v>
       </c>
       <c r="S3">
-        <v>0.009330115978725805</v>
+        <v>0.007594054380736734</v>
       </c>
       <c r="T3">
-        <v>0.009330115978725805</v>
+        <v>0.007594054380736734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H4">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>8.005117689875668</v>
+        <v>1.182073245357</v>
       </c>
       <c r="R4">
-        <v>72.04605920888102</v>
+        <v>10.638659208213</v>
       </c>
       <c r="S4">
-        <v>0.01060851292289454</v>
+        <v>0.001468413870815623</v>
       </c>
       <c r="T4">
-        <v>0.01060851292289454</v>
+        <v>0.001468413870815624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H5">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>11.03212565222434</v>
+        <v>4.215443009456001</v>
       </c>
       <c r="R5">
-        <v>99.28913087001901</v>
+        <v>37.938987085104</v>
       </c>
       <c r="S5">
-        <v>0.01461995339514315</v>
+        <v>0.005236574815504338</v>
       </c>
       <c r="T5">
-        <v>0.01461995339514315</v>
+        <v>0.005236574815504338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H6">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>10.51924661599033</v>
+        <v>21.516449060464</v>
       </c>
       <c r="R6">
-        <v>94.67321954391301</v>
+        <v>193.648041544176</v>
       </c>
       <c r="S6">
-        <v>0.01394027770584611</v>
+        <v>0.02672850635540867</v>
       </c>
       <c r="T6">
-        <v>0.01394027770584611</v>
+        <v>0.02672850635540867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H7">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I7">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J7">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>12.08388314147533</v>
+        <v>7.265482355846</v>
       </c>
       <c r="R7">
-        <v>108.754948273278</v>
+        <v>65.38934120261401</v>
       </c>
       <c r="S7">
-        <v>0.01601375962619728</v>
+        <v>0.009025443314443986</v>
       </c>
       <c r="T7">
-        <v>0.01601375962619728</v>
+        <v>0.009025443314443986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.27398</v>
       </c>
       <c r="I8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>3.289296236302222</v>
+        <v>4.555386766855556</v>
       </c>
       <c r="R8">
-        <v>29.60366612672</v>
+        <v>40.99848090170001</v>
       </c>
       <c r="S8">
-        <v>0.004359029183814844</v>
+        <v>0.005658865169019557</v>
       </c>
       <c r="T8">
-        <v>0.004359029183814844</v>
+        <v>0.005658865169019556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.27398</v>
       </c>
       <c r="I9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
-        <v>0.05987272763111111</v>
+        <v>0.05987272763111112</v>
       </c>
       <c r="R9">
-        <v>0.5388545486799999</v>
+        <v>0.53885454868</v>
       </c>
       <c r="S9">
-        <v>7.934431814873821E-05</v>
+        <v>7.43760541763528E-05</v>
       </c>
       <c r="T9">
-        <v>7.934431814873821E-05</v>
+        <v>7.43760541763528E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.27398</v>
       </c>
       <c r="I10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>0.06807638900222224</v>
+        <v>0.01157720755333333</v>
       </c>
       <c r="R10">
-        <v>0.6126875010200001</v>
+        <v>0.10419486798</v>
       </c>
       <c r="S10">
-        <v>9.021594440609493E-05</v>
+        <v>1.438162332444284E-05</v>
       </c>
       <c r="T10">
-        <v>9.021594440609496E-05</v>
+        <v>1.438162332444284E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.27398</v>
       </c>
       <c r="I11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>0.09381839299777778</v>
+        <v>0.04128598531555556</v>
       </c>
       <c r="R11">
-        <v>0.8443655369799999</v>
+        <v>0.37157386784</v>
       </c>
       <c r="S11">
-        <v>0.0001243296692290832</v>
+        <v>5.128693483739453E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001243296692290832</v>
+        <v>5.128693483739452E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.27398</v>
       </c>
       <c r="I12">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J12">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>0.0894568140511111</v>
+        <v>0.2107317778844444</v>
       </c>
       <c r="R12">
-        <v>0.8051113264599998</v>
+        <v>1.89658600096</v>
       </c>
       <c r="S12">
-        <v>0.0001185496334554109</v>
+        <v>0.000261778588494912</v>
       </c>
       <c r="T12">
-        <v>0.0001185496334554109</v>
+        <v>0.000261778588494912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.27398</v>
       </c>
       <c r="I13">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J13">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>0.1027626527511111</v>
+        <v>0.07115802471555556</v>
       </c>
       <c r="R13">
-        <v>0.92486387476</v>
+        <v>0.64042222244</v>
       </c>
       <c r="S13">
-        <v>0.0001361827485784308</v>
+        <v>8.839505582465467E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001361827485784308</v>
+        <v>8.839505582465467E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H14">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>280.1599782047893</v>
+        <v>18.266755099465</v>
       </c>
       <c r="R14">
-        <v>2521.439803843104</v>
+        <v>164.400795895185</v>
       </c>
       <c r="S14">
-        <v>0.3712725864133449</v>
+        <v>0.02269161971832424</v>
       </c>
       <c r="T14">
-        <v>0.3712725864133449</v>
+        <v>0.02269161971832424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H15">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>5.099553479880665</v>
+        <v>0.240085092386</v>
       </c>
       <c r="R15">
-        <v>45.89598131892599</v>
+        <v>2.160765831474</v>
       </c>
       <c r="S15">
-        <v>0.006758011698032401</v>
+        <v>0.0002982423307695965</v>
       </c>
       <c r="T15">
-        <v>0.006758011698032401</v>
+        <v>0.0002982423307695965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H16">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>5.798285800054334</v>
+        <v>0.04642372337099999</v>
       </c>
       <c r="R16">
-        <v>52.184572200489</v>
+        <v>0.417813510339</v>
       </c>
       <c r="S16">
-        <v>0.007683983199685809</v>
+        <v>5.766921770765221E-05</v>
       </c>
       <c r="T16">
-        <v>0.007683983199685811</v>
+        <v>5.766921770765222E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H17">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I17">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J17">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>7.990815374845666</v>
+        <v>0.165553666768</v>
       </c>
       <c r="R17">
-        <v>71.91733837361099</v>
+        <v>1.489983000912</v>
       </c>
       <c r="S17">
-        <v>0.01058955926103708</v>
+        <v>0.0002056567150989864</v>
       </c>
       <c r="T17">
-        <v>0.01058955926103708</v>
+        <v>0.0002056567150989863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H18">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I18">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J18">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>7.619325616899665</v>
+        <v>0.8450184309919998</v>
       </c>
       <c r="R18">
-        <v>68.57393055209698</v>
+        <v>7.605165878927999</v>
       </c>
       <c r="S18">
-        <v>0.01009725495639489</v>
+        <v>0.001049712266170748</v>
       </c>
       <c r="T18">
-        <v>0.01009725495639489</v>
+        <v>0.001049712266170748</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H19">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I19">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J19">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,772 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>8.752626849864665</v>
+        <v>0.285338276938</v>
       </c>
       <c r="R19">
-        <v>78.77364164878199</v>
+        <v>2.568044492442</v>
       </c>
       <c r="S19">
-        <v>0.01159912429063928</v>
+        <v>0.0003544574630854179</v>
       </c>
       <c r="T19">
-        <v>0.01159912429063928</v>
+        <v>0.0003544574630854179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.013987</v>
+      </c>
+      <c r="H20">
+        <v>15.041961</v>
+      </c>
+      <c r="I20">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J20">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49.88013833333334</v>
+      </c>
+      <c r="N20">
+        <v>149.640415</v>
+      </c>
+      <c r="O20">
+        <v>0.9202778328538029</v>
+      </c>
+      <c r="P20">
+        <v>0.9202778328538028</v>
+      </c>
+      <c r="Q20">
+        <v>250.098365161535</v>
+      </c>
+      <c r="R20">
+        <v>2250.885286453815</v>
+      </c>
+      <c r="S20">
+        <v>0.3106811781029659</v>
+      </c>
+      <c r="T20">
+        <v>0.3106811781029658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.013987</v>
+      </c>
+      <c r="H21">
+        <v>15.041961</v>
+      </c>
+      <c r="I21">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J21">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.966766</v>
+      </c>
+      <c r="O21">
+        <v>0.0120954700119653</v>
+      </c>
+      <c r="P21">
+        <v>0.0120954700119653</v>
+      </c>
+      <c r="Q21">
+        <v>3.287113052014</v>
+      </c>
+      <c r="R21">
+        <v>29.584017468126</v>
+      </c>
+      <c r="S21">
+        <v>0.004083369976839864</v>
+      </c>
+      <c r="T21">
+        <v>0.004083369976839863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.013987</v>
+      </c>
+      <c r="H22">
+        <v>15.041961</v>
+      </c>
+      <c r="I22">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J22">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.126767</v>
+      </c>
+      <c r="N22">
+        <v>0.380301</v>
+      </c>
+      <c r="O22">
+        <v>0.002338823907379126</v>
+      </c>
+      <c r="P22">
+        <v>0.002338823907379127</v>
+      </c>
+      <c r="Q22">
+        <v>0.635608090029</v>
+      </c>
+      <c r="R22">
+        <v>5.720472810261001</v>
+      </c>
+      <c r="S22">
+        <v>0.0007895752141140212</v>
+      </c>
+      <c r="T22">
+        <v>0.0007895752141140212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.013987</v>
+      </c>
+      <c r="H23">
+        <v>15.041961</v>
+      </c>
+      <c r="I23">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J23">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4520693333333334</v>
+      </c>
+      <c r="N23">
+        <v>1.356208</v>
+      </c>
+      <c r="O23">
+        <v>0.008340582048900294</v>
+      </c>
+      <c r="P23">
+        <v>0.008340582048900293</v>
+      </c>
+      <c r="Q23">
+        <v>2.266669760432</v>
+      </c>
+      <c r="R23">
+        <v>20.400027843888</v>
+      </c>
+      <c r="S23">
+        <v>0.002815738643819366</v>
+      </c>
+      <c r="T23">
+        <v>0.002815738643819365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.013987</v>
+      </c>
+      <c r="H24">
+        <v>15.041961</v>
+      </c>
+      <c r="I24">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J24">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.307450666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.922352</v>
+      </c>
+      <c r="O24">
+        <v>0.04257196892170599</v>
+      </c>
+      <c r="P24">
+        <v>0.04257196892170599</v>
+      </c>
+      <c r="Q24">
+        <v>11.569527645808</v>
+      </c>
+      <c r="R24">
+        <v>104.125748812272</v>
+      </c>
+      <c r="S24">
+        <v>0.01437208306728781</v>
+      </c>
+      <c r="T24">
+        <v>0.01437208306728781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.013987</v>
+      </c>
+      <c r="H25">
+        <v>15.041961</v>
+      </c>
+      <c r="I25">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J25">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7791593333333333</v>
+      </c>
+      <c r="N25">
+        <v>2.337478</v>
+      </c>
+      <c r="O25">
+        <v>0.01437532225624636</v>
+      </c>
+      <c r="P25">
+        <v>0.01437532225624636</v>
+      </c>
+      <c r="Q25">
+        <v>3.906694768262</v>
+      </c>
+      <c r="R25">
+        <v>35.160252914358</v>
+      </c>
+      <c r="S25">
+        <v>0.004853036653431925</v>
+      </c>
+      <c r="T25">
+        <v>0.004853036653431924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.167341</v>
+      </c>
+      <c r="I26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>49.88013833333334</v>
+      </c>
+      <c r="N26">
+        <v>149.640415</v>
+      </c>
+      <c r="O26">
+        <v>0.9202778328538029</v>
+      </c>
+      <c r="P26">
+        <v>0.9202778328538028</v>
+      </c>
+      <c r="Q26">
+        <v>2.782330742946111</v>
+      </c>
+      <c r="R26">
+        <v>25.040976686515</v>
+      </c>
+      <c r="S26">
+        <v>0.003456311249904743</v>
+      </c>
+      <c r="T26">
+        <v>0.003456311249904742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.167341</v>
+      </c>
+      <c r="I27">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J27">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N27">
+        <v>1.966766</v>
+      </c>
+      <c r="O27">
+        <v>0.0120954700119653</v>
+      </c>
+      <c r="P27">
+        <v>0.0120954700119653</v>
+      </c>
+      <c r="Q27">
+        <v>0.03656895435622222</v>
+      </c>
+      <c r="R27">
+        <v>0.329120589206</v>
+      </c>
+      <c r="S27">
+        <v>4.542726944275149E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.542726944275149E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.167341</v>
+      </c>
+      <c r="I28">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J28">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.126767</v>
+      </c>
+      <c r="N28">
+        <v>0.380301</v>
+      </c>
+      <c r="O28">
+        <v>0.002338823907379126</v>
+      </c>
+      <c r="P28">
+        <v>0.002338823907379127</v>
+      </c>
+      <c r="Q28">
+        <v>0.007071105515666665</v>
+      </c>
+      <c r="R28">
+        <v>0.06363994964099999</v>
+      </c>
+      <c r="S28">
+        <v>8.783981417386627E-06</v>
+      </c>
+      <c r="T28">
+        <v>8.783981417386629E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.167341</v>
+      </c>
+      <c r="I29">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J29">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4520693333333334</v>
+      </c>
+      <c r="N29">
+        <v>1.356208</v>
+      </c>
+      <c r="O29">
+        <v>0.008340582048900294</v>
+      </c>
+      <c r="P29">
+        <v>0.008340582048900293</v>
+      </c>
+      <c r="Q29">
+        <v>0.02521657810311111</v>
+      </c>
+      <c r="R29">
+        <v>0.226949202928</v>
+      </c>
+      <c r="S29">
+        <v>3.132493964020891E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.13249396402089E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.167341</v>
+      </c>
+      <c r="I30">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J30">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.307450666666667</v>
+      </c>
+      <c r="N30">
+        <v>6.922352</v>
+      </c>
+      <c r="O30">
+        <v>0.04257196892170599</v>
+      </c>
+      <c r="P30">
+        <v>0.04257196892170599</v>
+      </c>
+      <c r="Q30">
+        <v>0.1287103673368889</v>
+      </c>
+      <c r="R30">
+        <v>1.158393306032</v>
+      </c>
+      <c r="S30">
+        <v>0.0001598886443438465</v>
+      </c>
+      <c r="T30">
+        <v>0.0001598886443438465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.167341</v>
+      </c>
+      <c r="I31">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J31">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7791593333333333</v>
+      </c>
+      <c r="N31">
+        <v>2.337478</v>
+      </c>
+      <c r="O31">
+        <v>0.01437532225624636</v>
+      </c>
+      <c r="P31">
+        <v>0.01437532225624636</v>
+      </c>
+      <c r="Q31">
+        <v>0.04346176733311111</v>
+      </c>
+      <c r="R31">
+        <v>0.391155905998</v>
+      </c>
+      <c r="S31">
+        <v>5.398976946037497E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.398976946037497E-05</v>
       </c>
     </row>
   </sheetData>
